--- a/Fall-Semester/ANLT600/Solution of practice questions on Time series analysis.xlsx
+++ b/Fall-Semester/ANLT600/Solution of practice questions on Time series analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://saskpolytech-my.sharepoint.com/personal/royan_saskpolytech_ca/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae9dc2046ad84b81/Documents/SaskPolytech/SaskPolytech-AIDA-2425/Fall-Semester/ANLT600/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="816" documentId="11_F25DC773A252ABDACC1048FA891C6BB65BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D700BCED-B46C-47E7-9FA2-09BA48A6657D}"/>
+  <xr:revisionPtr revIDLastSave="895" documentId="11_F25DC773A252ABDACC1048FA891C6BB65BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F62CB207-372F-DD43-A776-6E392B78D496}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1300" yWindow="500" windowWidth="27480" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1-Q3" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="76">
   <si>
     <t>Q1</t>
   </si>
@@ -320,9 +320,6 @@
     </r>
   </si>
   <si>
-    <t>Average y is -2.48 degree if x is 0 mm</t>
-  </si>
-  <si>
     <t>SUMMARY OUTPUT</t>
   </si>
   <si>
@@ -390,6 +387,9 @@
   </si>
   <si>
     <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>X Variable 1</t>
   </si>
 </sst>
 </file>
@@ -648,7 +648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -717,13 +717,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -732,8 +733,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1289,6 +1288,372 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q1-Q3'!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y (degree)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Q1-Q3'!$A$16:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.17000000179999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1899999976</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21999999880000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23499999939999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23499999939999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30000001189999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34999999399999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41999998690000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85000002379999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Q1-Q3'!$B$16:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.62999999520000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69999998809999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81999999280000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87999999520000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1499999759999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4000000950000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.3000001909999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.30000019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-654C-E649-8D44-2CF19F19BF1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1074227999"/>
+        <c:axId val="1074051039"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1074227999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1074051039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1074051039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1074227999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -2235,7 +2600,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3430,6 +3795,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
   <cs:axisTitle>
@@ -3910,7 +4315,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3921,7 +4326,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3934,11 +4339,11 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3951,7 +4356,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3967,7 +4372,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -4011,6 +4416,522 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
@@ -4411,7 +5332,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4960,6 +5881,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{988AC27B-9B05-9697-7782-6021F9C652D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5048,10 +6005,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5337,21 +6290,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80291FA9-73F2-4FFF-97A2-6F73B4468F91}">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -5363,11 +6316,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="13"/>
       <c r="D2" s="14" t="s">
         <v>33</v>
@@ -5378,7 +6331,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
@@ -5391,11 +6344,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="18"/>
       <c r="D4" s="19" t="s">
         <v>35</v>
@@ -5408,7 +6361,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -5421,7 +6374,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>36</v>
       </c>
@@ -5432,48 +6385,48 @@
       </c>
       <c r="E6" s="25"/>
     </row>
-    <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="D7" s="16"/>
       <c r="E7" s="24"/>
     </row>
-    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="21"/>
       <c r="D8" s="19" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="25"/>
     </row>
-    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+    <row r="10" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="16"/>
       <c r="D10" s="19" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="20"/>
     </row>
-    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>48</v>
       </c>
@@ -5481,7 +6434,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="32">
         <v>0.17000000179999999</v>
       </c>
@@ -5489,7 +6442,7 @@
         <v>0.62999999520000005</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="32">
         <v>0.1899999976</v>
       </c>
@@ -5497,7 +6450,7 @@
         <v>0.69999998809999997</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="32">
         <v>0.21999999880000001</v>
       </c>
@@ -5505,7 +6458,7 @@
         <v>0.81999999280000002</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="32">
         <v>0.23499999939999999</v>
       </c>
@@ -5513,7 +6466,7 @@
         <v>0.87999999520000005</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="32">
         <v>0.23499999939999999</v>
       </c>
@@ -5521,7 +6474,7 @@
         <v>1.1499999759999999</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="32">
         <v>0.30000001189999997</v>
       </c>
@@ -5529,7 +6482,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="32">
         <v>0.34999999399999998</v>
       </c>
@@ -5537,7 +6490,7 @@
         <v>4.4000000950000002</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="32">
         <v>0.41999998690000001</v>
       </c>
@@ -5545,7 +6498,7 @@
         <v>7.3000001909999996</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="32">
         <v>0.85000002379999995</v>
       </c>
@@ -5553,7 +6506,7 @@
         <v>11.30000019</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="E26" s="34" t="s">
         <v>50</v>
       </c>
@@ -5567,223 +6520,452 @@
       <c r="M26" s="33"/>
       <c r="N26" s="33"/>
     </row>
-    <row r="28" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E28" s="37" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    </row>
+    <row r="28" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="42" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="41" t="s">
+      <c r="B29" s="42"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="41"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
+      <c r="B30" s="39">
+        <v>0.9541942798140497</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="38">
+      <c r="B31" s="39">
+        <v>0.91048672362985306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="39">
+        <v>0.89769911271983205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="39">
+        <v>1.2118953858770751</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="41"/>
+      <c r="B37" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="39">
+        <v>1</v>
+      </c>
+      <c r="C38" s="39">
+        <v>104.57177213843305</v>
+      </c>
+      <c r="D38" s="39">
+        <v>104.57177213843305</v>
+      </c>
+      <c r="E38" s="39">
+        <v>71.200690264696078</v>
+      </c>
+      <c r="F38" s="39">
+        <v>6.4752278881708341E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="39">
+        <v>7</v>
+      </c>
+      <c r="C39" s="39">
+        <v>10.280832984171012</v>
+      </c>
+      <c r="D39" s="39">
+        <v>1.4686904263101446</v>
+      </c>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+    </row>
+    <row r="40" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="40">
+        <v>8</v>
+      </c>
+      <c r="C40" s="40">
+        <v>114.85260512260406</v>
+      </c>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G42" t="s">
+        <v>72</v>
+      </c>
+      <c r="H42" t="s">
+        <v>73</v>
+      </c>
+      <c r="I42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43">
+        <v>-2.4759250489544318</v>
+      </c>
+      <c r="C43">
+        <v>0.78328399504570945</v>
+      </c>
+      <c r="D43">
+        <v>-3.1609544745133551</v>
+      </c>
+      <c r="E43">
+        <v>1.5907121272099697E-2</v>
+      </c>
+      <c r="F43">
+        <v>-4.3280973795239994</v>
+      </c>
+      <c r="G43">
+        <v>-0.62375271838486435</v>
+      </c>
+      <c r="H43">
+        <v>-4.3280973795239994</v>
+      </c>
+      <c r="I43">
+        <v>-0.62375271838486435</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44">
+        <v>17.159368899165816</v>
+      </c>
+      <c r="C44">
+        <v>2.0335703868158097</v>
+      </c>
+      <c r="D44">
+        <v>8.4380501458984032</v>
+      </c>
+      <c r="E44">
+        <v>6.4752278881708341E-5</v>
+      </c>
+      <c r="F44">
+        <v>12.350739045180232</v>
+      </c>
+      <c r="G44">
+        <v>21.967998753151399</v>
+      </c>
+      <c r="H44">
+        <v>12.350739045180232</v>
+      </c>
+      <c r="I44">
+        <v>21.967998753151399</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="36">
+        <v>17.159368899165816</v>
+      </c>
+      <c r="C48" s="35">
+        <v>2.0335703868158097</v>
+      </c>
+      <c r="D48" s="35">
+        <v>8.4380501458984032</v>
+      </c>
+      <c r="E48" s="35">
+        <v>6.4752278881708341E-5</v>
+      </c>
+      <c r="F48" s="35">
+        <v>12.350739045180232</v>
+      </c>
+      <c r="G48" s="35">
+        <v>21.967998753151399</v>
+      </c>
+      <c r="H48" s="35">
+        <v>12.350739045180232</v>
+      </c>
+      <c r="I48" s="35">
+        <v>21.967998753151399</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="42"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="39">
         <v>0.9541942798140497</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="39">
+        <v>0.91048672362985306</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="42">
-        <v>0.91048672362985306</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
+      <c r="B59" s="39">
+        <v>0.89769911271983205</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="38">
-        <v>0.89769911271983205</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="s">
+      <c r="B60" s="39">
+        <v>1.2118953858770751</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="38">
-        <v>1.2118953858770751</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="39" t="s">
+      <c r="B61" s="40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="39">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="41"/>
+      <c r="B64" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D64" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E64" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="F64" s="41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="39" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="E41" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="F41" s="40" t="s">
+      <c r="B65" s="39">
+        <v>1</v>
+      </c>
+      <c r="C65" s="39">
+        <v>104.57177213843305</v>
+      </c>
+      <c r="D65" s="39">
+        <v>104.57177213843305</v>
+      </c>
+      <c r="E65" s="39">
+        <v>71.200690264696078</v>
+      </c>
+      <c r="F65" s="39">
+        <v>6.4752278881708341E-5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" s="39">
+        <v>7</v>
+      </c>
+      <c r="C66" s="39">
+        <v>10.280832984171012</v>
+      </c>
+      <c r="D66" s="39">
+        <v>1.4686904263101446</v>
+      </c>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+    </row>
+    <row r="67" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="40">
+        <v>8</v>
+      </c>
+      <c r="C67" s="40">
+        <v>114.85260512260406</v>
+      </c>
+      <c r="D67" s="40"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="40"/>
+    </row>
+    <row r="68" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="41"/>
+      <c r="B69" s="41" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="38">
-        <v>1</v>
-      </c>
-      <c r="C42" s="38">
-        <v>104.57177213843305</v>
-      </c>
-      <c r="D42" s="38">
-        <v>104.57177213843305</v>
-      </c>
-      <c r="E42" s="38">
-        <v>71.200690264696078</v>
-      </c>
-      <c r="F42" s="38">
+      <c r="C69" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="F69" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="G69" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="H69" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="I69" s="41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B70" s="39">
+        <v>-2.4759250489544318</v>
+      </c>
+      <c r="C70" s="39">
+        <v>0.78328399504570945</v>
+      </c>
+      <c r="D70" s="39">
+        <v>-3.1609544745133551</v>
+      </c>
+      <c r="E70" s="39">
+        <v>1.5907121272099697E-2</v>
+      </c>
+      <c r="F70" s="39">
+        <v>-4.3280973795239994</v>
+      </c>
+      <c r="G70" s="39">
+        <v>-0.62375271838486435</v>
+      </c>
+      <c r="H70" s="39">
+        <v>-4.3280973795239994</v>
+      </c>
+      <c r="I70" s="39">
+        <v>-0.62375271838486435</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="40">
+        <v>17.159368899165816</v>
+      </c>
+      <c r="C71" s="40">
+        <v>2.0335703868158097</v>
+      </c>
+      <c r="D71" s="40">
+        <v>8.4380501458984032</v>
+      </c>
+      <c r="E71" s="40">
         <v>6.4752278881708341E-5</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="38">
-        <v>7</v>
-      </c>
-      <c r="C43" s="38">
-        <v>10.280832984171012</v>
-      </c>
-      <c r="D43" s="38">
-        <v>1.4686904263101446</v>
-      </c>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="39">
-        <v>8</v>
-      </c>
-      <c r="C44" s="39">
-        <v>114.85260512260406</v>
-      </c>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
-      <c r="B46" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="E46" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="F46" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="G46" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="H46" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="I46" s="40" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" s="42">
-        <v>-2.4759250489544318</v>
-      </c>
-      <c r="C47" s="38">
-        <v>0.78328399504570945</v>
-      </c>
-      <c r="D47" s="38">
-        <v>-3.1609544745133551</v>
-      </c>
-      <c r="E47" s="38">
-        <v>1.5907121272099697E-2</v>
-      </c>
-      <c r="F47" s="38">
-        <v>-4.3280973795239994</v>
-      </c>
-      <c r="G47" s="38">
-        <v>-0.62375271838486435</v>
-      </c>
-      <c r="H47" s="38">
-        <v>-4.3280973795239994</v>
-      </c>
-      <c r="I47" s="38">
-        <v>-0.62375271838486435</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="43">
-        <v>17.159368899165816</v>
-      </c>
-      <c r="C48" s="39">
-        <v>2.0335703868158097</v>
-      </c>
-      <c r="D48" s="39">
-        <v>8.4380501458984032</v>
-      </c>
-      <c r="E48" s="39">
-        <v>6.4752278881708341E-5</v>
-      </c>
-      <c r="F48" s="39">
+      <c r="F71" s="40">
         <v>12.350739045180232</v>
       </c>
-      <c r="G48" s="39">
+      <c r="G71" s="40">
         <v>21.967998753151399</v>
       </c>
-      <c r="H48" s="39">
+      <c r="H71" s="40">
         <v>12.350739045180232</v>
       </c>
-      <c r="I48" s="39">
+      <c r="I71" s="40">
         <v>21.967998753151399</v>
       </c>
     </row>
@@ -5803,21 +6985,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8FB5B5-0BFA-4154-B3E4-BACFDA54B60E}">
   <dimension ref="A1:W76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="117" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -5828,7 +7010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>2020</v>
       </c>
@@ -5839,7 +7021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="7" t="s">
         <v>9</v>
@@ -5875,7 +7057,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="7" t="s">
         <v>10</v>
@@ -5915,7 +7097,7 @@
         <v>1.0193848633521672</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>11</v>
@@ -5955,7 +7137,7 @@
         <v>1.1677057687879699</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
         <v>12</v>
@@ -5995,7 +7177,7 @@
         <v>1.0344524345099984</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>13</v>
@@ -6035,7 +7217,7 @@
         <v>0.82746152074957047</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>14</v>
@@ -6075,7 +7257,7 @@
         <v>0.80578118634761509</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="7" t="s">
         <v>15</v>
@@ -6115,7 +7297,7 @@
         <v>0.97931950619033292</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
         <v>16</v>
@@ -6155,7 +7337,7 @@
         <v>1.1929780902956129</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
         <v>17</v>
@@ -6195,7 +7377,7 @@
         <v>1.0350785525779769</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="7" t="s">
         <v>18</v>
@@ -6235,7 +7417,7 @@
         <v>0.9996377902548752</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7" t="s">
         <v>19</v>
@@ -6275,7 +7457,7 @@
         <v>0.98217556102658576</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>2021</v>
       </c>
@@ -6317,7 +7499,7 @@
         <v>0.94074815352733843</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8" t="s">
         <v>9</v>
@@ -6357,7 +7539,7 @@
         <v>1.0152765723799571</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8" t="s">
         <v>10</v>
@@ -6389,7 +7571,7 @@
       </c>
       <c r="W16" s="4"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="8" t="s">
         <v>11</v>
@@ -6413,7 +7595,7 @@
         <v>17.916666666666668</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="8" t="s">
         <v>12</v>
@@ -6422,7 +7604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8" t="s">
         <v>13</v>
@@ -6431,7 +7613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="8" t="s">
         <v>14</v>
@@ -6440,7 +7622,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="8" t="s">
         <v>15</v>
@@ -6452,7 +7634,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="8" t="s">
         <v>16</v>
@@ -6467,7 +7649,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="8" t="s">
         <v>17</v>
@@ -6483,7 +7665,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="8" t="s">
         <v>18</v>
@@ -6492,7 +7674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="8" t="s">
         <v>19</v>
@@ -6501,7 +7683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>2022</v>
       </c>
@@ -6512,7 +7694,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
         <v>9</v>
@@ -6521,7 +7703,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="6" t="s">
         <v>10</v>
@@ -6536,7 +7718,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="6" t="s">
         <v>11</v>
@@ -6551,7 +7733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
         <v>12</v>
@@ -6566,7 +7748,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
         <v>13</v>
@@ -6581,7 +7763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
         <v>14</v>
@@ -6596,7 +7778,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
         <v>15</v>
@@ -6611,7 +7793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
         <v>16</v>
@@ -6626,7 +7808,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
         <v>17</v>
@@ -6641,7 +7823,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
         <v>18</v>
@@ -6656,7 +7838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
         <v>19</v>
@@ -6671,7 +7853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>2023</v>
       </c>
@@ -6689,7 +7871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
         <v>9</v>
@@ -6705,7 +7887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
         <v>10</v>
@@ -6721,7 +7903,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
         <v>11</v>
@@ -6737,7 +7919,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
         <v>12</v>
@@ -6753,7 +7935,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
         <v>13</v>
@@ -6769,7 +7951,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
         <v>14</v>
@@ -6785,7 +7967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
         <v>15</v>
@@ -6801,7 +7983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
         <v>16</v>
@@ -6817,7 +7999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
         <v>17</v>
@@ -6833,7 +8015,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
         <v>18</v>
@@ -6849,7 +8031,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
         <v>19</v>
@@ -6865,7 +8047,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F50">
         <v>20</v>
       </c>
@@ -6873,7 +8055,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F51">
         <v>17</v>
       </c>
@@ -6881,7 +8063,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F52">
         <v>15</v>
       </c>
@@ -6889,7 +8071,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F53">
         <v>18</v>
       </c>
@@ -6897,7 +8079,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F54">
         <v>25</v>
       </c>
@@ -6905,7 +8087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F55">
         <v>21</v>
       </c>
@@ -6913,7 +8095,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F56">
         <v>11</v>
       </c>
@@ -6921,7 +8103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F57">
         <v>14</v>
       </c>
@@ -6929,7 +8111,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F58">
         <v>16</v>
       </c>
@@ -6937,7 +8119,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F59">
         <v>19</v>
       </c>
@@ -6945,7 +8127,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F60">
         <v>20</v>
       </c>
@@ -6953,7 +8135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F61">
         <v>17</v>
       </c>
@@ -6961,7 +8143,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F62">
         <v>16</v>
       </c>
@@ -6969,7 +8151,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F63">
         <v>18</v>
       </c>
@@ -6977,7 +8159,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F64">
         <v>20</v>
       </c>
@@ -6985,62 +8167,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F65">
         <v>20.387697267043343</v>
       </c>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F66">
         <v>23.354115375759399</v>
       </c>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F67">
         <v>20.689048690199968</v>
       </c>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F68">
         <v>16.54923041499141</v>
       </c>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F69">
         <v>16.1156237269523</v>
       </c>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F70">
         <v>19.586390123806659</v>
       </c>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F71">
         <v>23.859561805912257</v>
       </c>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F72">
         <v>20.701571051559537</v>
       </c>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F73">
         <v>19.992755805097502</v>
       </c>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F74">
         <v>19.643511220531714</v>
       </c>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F75">
         <v>18.814963070546767</v>
       </c>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F76">
         <v>20.30553144759914</v>
       </c>
@@ -7056,19 +8238,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD7BB083-C248-4D88-B4B5-D475561033E3}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" customWidth="1"/>
-    <col min="4" max="4" width="49.140625" customWidth="1"/>
-    <col min="5" max="5" width="49.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="34.5" customWidth="1"/>
+    <col min="4" max="4" width="49.1640625" customWidth="1"/>
+    <col min="5" max="5" width="49.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -7085,7 +8267,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7093,7 +8275,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7101,7 +8283,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7109,7 +8291,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7117,7 +8299,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7125,7 +8307,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7133,7 +8315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7141,7 +8323,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7149,7 +8331,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7157,7 +8339,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7165,7 +8347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7173,7 +8355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7181,7 +8363,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7189,7 +8371,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7197,7 +8379,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7205,7 +8387,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7213,7 +8395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7221,7 +8403,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7229,7 +8411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7237,7 +8419,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7245,7 +8427,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7253,7 +8435,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7261,7 +8443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7269,7 +8451,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -7277,7 +8459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7285,7 +8467,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -7293,7 +8475,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -7301,7 +8483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -7309,7 +8491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -7317,7 +8499,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -7325,7 +8507,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -7333,7 +8515,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -7341,7 +8523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -7349,7 +8531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -7357,7 +8539,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -7365,7 +8547,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -7382,7 +8564,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -7399,7 +8581,7 @@
         <v>29.443236041144509</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -7416,7 +8598,7 @@
         <v>26.548749495113345</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -7433,7 +8615,7 @@
         <v>26.906823642249773</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -7450,7 +8632,7 @@
         <v>26.446383627222311</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -7467,7 +8649,7 @@
         <v>25.26790910610875</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -7484,7 +8666,7 @@
         <v>29.369124807805111</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -7501,7 +8683,7 @@
         <v>33.346413878979462</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -7518,7 +8700,7 @@
         <v>30.20982939726602</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -7535,7 +8717,7 @@
         <v>30.373140107402239</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -7552,7 +8734,7 @@
         <v>29.751319367912835</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -7569,7 +8751,7 @@
         <v>28.436160387568151</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -7599,16 +8781,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B90FEF-B493-4F7E-A3DD-FB42E9826D57}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -7622,7 +8804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>2020</v>
       </c>
@@ -7636,7 +8818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="7" t="s">
         <v>9</v>
@@ -7648,7 +8830,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="7" t="s">
         <v>10</v>
@@ -7660,7 +8842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>11</v>
@@ -7672,7 +8854,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
         <v>12</v>
@@ -7684,7 +8866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>13</v>
@@ -7696,7 +8878,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>14</v>
@@ -7708,7 +8890,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="7" t="s">
         <v>15</v>
@@ -7720,7 +8902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
         <v>16</v>
@@ -7732,7 +8914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
         <v>17</v>
@@ -7744,7 +8926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="7" t="s">
         <v>18</v>
@@ -7756,7 +8938,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7" t="s">
         <v>19</v>
@@ -7768,7 +8950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>2021</v>
       </c>
@@ -7782,7 +8964,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8" t="s">
         <v>9</v>
@@ -7794,7 +8976,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8" t="s">
         <v>10</v>
@@ -7806,7 +8988,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="8" t="s">
         <v>11</v>
@@ -7818,7 +9000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="8" t="s">
         <v>12</v>
@@ -7830,7 +9012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8" t="s">
         <v>13</v>
@@ -7842,7 +9024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="8" t="s">
         <v>14</v>
@@ -7854,7 +9036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="8" t="s">
         <v>15</v>
@@ -7866,7 +9048,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="8" t="s">
         <v>16</v>
@@ -7878,7 +9060,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="8" t="s">
         <v>17</v>
@@ -7890,7 +9072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="8" t="s">
         <v>18</v>
@@ -7902,7 +9084,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="8" t="s">
         <v>19</v>
@@ -7914,7 +9096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>2022</v>
       </c>
@@ -7928,7 +9110,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
         <v>9</v>
@@ -7940,7 +9122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="6" t="s">
         <v>10</v>
@@ -7952,7 +9134,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="6" t="s">
         <v>11</v>
@@ -7964,7 +9146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
         <v>12</v>
@@ -7976,7 +9158,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
         <v>13</v>
@@ -7988,7 +9170,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
         <v>14</v>
@@ -8000,7 +9182,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
         <v>15</v>
@@ -8012,7 +9194,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
         <v>16</v>
@@ -8024,7 +9206,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
         <v>17</v>
@@ -8036,7 +9218,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
         <v>18</v>
@@ -8048,7 +9230,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
         <v>19</v>
